--- a/Assets/Excel/SkillSpecial.xlsx
+++ b/Assets/Excel/SkillSpecial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>//Remark</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Help</t>
+  </si>
+  <si>
+    <t>Teleport</t>
   </si>
 </sst>
 </file>
@@ -974,13 +977,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="22.1818181818182" customWidth="1"/>
@@ -1024,6 +1027,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/SkillSpecial.xlsx
+++ b/Assets/Excel/SkillSpecial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="SkillSpecial" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>//Remark</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>Help</t>
+  </si>
+  <si>
+    <t>Reduce Move</t>
+  </si>
+  <si>
+    <t>Harm</t>
   </si>
   <si>
     <t>Teleport</t>
@@ -977,13 +983,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="22.1818181818182" customWidth="1"/>
@@ -1029,12 +1035,23 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>3001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Assets/Excel/SkillSpecial.xlsx
+++ b/Assets/Excel/SkillSpecial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="16580" windowHeight="7820"/>
   </bookViews>
   <sheets>
     <sheet name="SkillSpecial" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>//Remark</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>Help</t>
+  </si>
+  <si>
+    <t>Recover MOV</t>
+  </si>
+  <si>
+    <t>Recover MOV Hidden</t>
   </si>
   <si>
     <t>Reduce Move</t>
@@ -983,15 +989,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="18.9090909090909" customWidth="1"/>
     <col min="3" max="3" width="22.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1035,23 +1041,45 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2001</v>
+        <v>1002</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
         <v>3001</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Assets/Excel/SkillSpecial.xlsx
+++ b/Assets/Excel/SkillSpecial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16580" windowHeight="7820"/>
+    <workbookView windowWidth="10780" windowHeight="8690"/>
   </bookViews>
   <sheets>
     <sheet name="SkillSpecial" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>//Remark</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Recover MOV</t>
   </si>
   <si>
+    <t>Recover AP Hidden</t>
+  </si>
+  <si>
     <t>Recover MOV Hidden</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>Teleport</t>
+  </si>
+  <si>
+    <t>Self Burn</t>
   </si>
 </sst>
 </file>
@@ -989,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="18.9090909090909" customWidth="1"/>
     <col min="3" max="3" width="22.1818181818182" customWidth="1"/>
@@ -1063,23 +1069,45 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2001</v>
+        <v>1004</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
         <v>3001</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>3002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Assets/Excel/SkillSpecial.xlsx
+++ b/Assets/Excel/SkillSpecial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10780" windowHeight="8690"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="SkillSpecial" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>//Remark</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>Self Burn</t>
+  </si>
+  <si>
+    <t>Double Buff</t>
+  </si>
+  <si>
+    <t>Clear Debuff</t>
+  </si>
+  <si>
+    <t>Double Debuff</t>
+  </si>
+  <si>
+    <t>Clear Buff</t>
   </si>
 </sst>
 </file>
@@ -995,10 +1007,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1111,6 +1123,50 @@
         <v>8</v>
       </c>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>5001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>5002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>6001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>6002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/SkillSpecial.xlsx
+++ b/Assets/Excel/SkillSpecial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>//Remark</t>
   </si>
@@ -28,6 +28,9 @@
     <t>effectType</t>
   </si>
   <si>
+    <t>timeType</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -37,12 +40,18 @@
     <t>enum|SkillEffectType</t>
   </si>
   <si>
+    <t>enum|SpecialEffectTimeType</t>
+  </si>
+  <si>
     <t>Recover AP</t>
   </si>
   <si>
     <t>Help</t>
   </si>
   <si>
+    <t>BeforeDamage</t>
+  </si>
+  <si>
     <t>Recover MOV</t>
   </si>
   <si>
@@ -62,6 +71,12 @@
   </si>
   <si>
     <t>Self Burn</t>
+  </si>
+  <si>
+    <t>Self Absorb</t>
+  </si>
+  <si>
+    <t>AfterDamage</t>
   </si>
   <si>
     <t>Double Buff</t>
@@ -1007,16 +1022,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="18.9090909090909" customWidth="1"/>
     <col min="3" max="3" width="22.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="22.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1024,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1034,137 +1050,190 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>2001</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>3001</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>3002</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
+        <v>3003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
         <v>5001</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>5002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>6001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>5002</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>6001</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
         <v>6002</v>
       </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SkillSpecial.xlsx
+++ b/Assets/Excel/SkillSpecial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>//Remark</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Clear Buff</t>
+  </si>
+  <si>
+    <t>Summon Foe</t>
   </si>
 </sst>
 </file>
@@ -1022,10 +1025,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1236,6 +1239,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>9001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/SkillSpecial.xlsx
+++ b/Assets/Excel/SkillSpecial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>//Remark</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Summon Foe</t>
+  </si>
+  <si>
+    <t>Self Kill Harm</t>
+  </si>
+  <si>
+    <t>Self Kill Help</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1031,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1253,6 +1259,34 @@
         <v>11</v>
       </c>
     </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>9998</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>9999</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/SkillSpecial.xlsx
+++ b/Assets/Excel/SkillSpecial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="15670" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="SkillSpecial" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>//Remark</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Clear Buff</t>
+  </si>
+  <si>
+    <t>Random MilkTea</t>
   </si>
   <si>
     <t>Summon Foe</t>
@@ -1031,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1247,13 +1250,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>9001</v>
+        <v>8001</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -1261,29 +1264,43 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>9998</v>
+        <v>9001</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>9999</v>
+        <v>9998</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>9999</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Assets/Excel/SkillSpecial.xlsx
+++ b/Assets/Excel/SkillSpecial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15670" windowHeight="7770"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="SkillSpecial" sheetId="1" r:id="rId1"/>
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>

--- a/Assets/Excel/SkillSpecial.xlsx
+++ b/Assets/Excel/SkillSpecial.xlsx
@@ -9,7 +9,20 @@
   <sheets>
     <sheet name="SkillSpecial" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -106,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1037,7 +1050,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1256,7 +1269,7 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>

--- a/Assets/Excel/SkillSpecial.xlsx
+++ b/Assets/Excel/SkillSpecial.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>//Remark</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>AfterDamage</t>
+  </si>
+  <si>
+    <t>DebuffFromATK</t>
   </si>
   <si>
     <t>Double Buff</t>
@@ -1047,10 +1050,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1207,13 +1210,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>5001</v>
+        <v>3004</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -1221,7 +1224,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -1235,13 +1238,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>6001</v>
+        <v>5002</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1263,13 +1266,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>8001</v>
+        <v>6002</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -1277,7 +1280,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>9001</v>
+        <v>8001</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1291,29 +1294,43 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>9998</v>
+        <v>9001</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>9999</v>
+        <v>9998</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>9999</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Assets/Excel/SkillSpecial.xlsx
+++ b/Assets/Excel/SkillSpecial.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>//Remark</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>DebuffFromATK</t>
+  </si>
+  <si>
+    <t>Reborn</t>
   </si>
   <si>
     <t>Double Buff</t>
@@ -1050,10 +1053,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1224,7 +1227,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>5001</v>
+        <v>3005</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -1238,7 +1241,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -1252,13 +1255,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>6001</v>
+        <v>5002</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -1266,7 +1269,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1280,13 +1283,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>8001</v>
+        <v>6002</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -1294,7 +1297,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>9001</v>
+        <v>8001</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
@@ -1308,29 +1311,43 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>9998</v>
+        <v>9001</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>9999</v>
+        <v>9998</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>9999</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
         <v>10</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Assets/Excel/SkillSpecial.xlsx
+++ b/Assets/Excel/SkillSpecial.xlsx
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>

--- a/Assets/Excel/SkillSpecial.xlsx
+++ b/Assets/Excel/SkillSpecial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="15080" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="SkillSpecial" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t>//Remark</t>
   </si>
@@ -98,6 +98,9 @@
     <t>Reborn</t>
   </si>
   <si>
+    <t>BuffFromATK</t>
+  </si>
+  <si>
     <t>Double Buff</t>
   </si>
   <si>
@@ -111,6 +114,9 @@
   </si>
   <si>
     <t>Random MilkTea</t>
+  </si>
+  <si>
+    <t>Random Helper</t>
   </si>
   <si>
     <t>Summon Foe</t>
@@ -1053,10 +1059,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1241,7 +1247,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>5001</v>
+        <v>3006</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -1255,7 +1261,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1269,13 +1275,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>6001</v>
+        <v>5002</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -1283,7 +1289,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1297,13 +1303,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>8001</v>
+        <v>6002</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -1311,7 +1317,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>9001</v>
+        <v>8001</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -1325,21 +1331,21 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>9998</v>
+        <v>8002</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>9999</v>
+        <v>9001</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -1348,6 +1354,34 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>9998</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>9999</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
         <v>20</v>
       </c>
     </row>
